--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Project</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Task 21.1</t>
+  </si>
+  <si>
+    <t>Task 22.1</t>
   </si>
 </sst>
 </file>
@@ -451,45 +454,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$28:$Q$28</c:f>
+              <c:f>Sheet1!$F$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>81.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>74.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>66.749999999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>59.333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.5</c:v>
+                  <c:v>51.916666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>44.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.5</c:v>
+                  <c:v>37.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>29.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.5</c:v>
+                  <c:v>22.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>14.833333333333325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5</c:v>
+                  <c:v>7.4166666666666581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-8.8817841970012523E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$Q$29</c:f>
+              <c:f>Sheet1!$F$30:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -625,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-176610352"/>
-        <c:axId val="-176600016"/>
+        <c:axId val="1917599504"/>
+        <c:axId val="1917600048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-176610352"/>
+        <c:axId val="1917599504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-176600016"/>
+        <c:crossAx val="1917600048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-176600016"/>
+        <c:axId val="1917600048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-176610352"/>
+        <c:crossAx val="1917599504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50264,7 +50267,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -50276,7 +50279,9 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
       <c r="Q6" s="4">
         <v>4</v>
       </c>
@@ -50290,8 +50295,8 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7">
-        <v>1971</v>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -50322,7 +50327,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="7">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -50353,7 +50358,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="7">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -50384,7 +50389,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -50415,7 +50420,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="7">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -50446,7 +50451,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>29</v>
@@ -50477,7 +50482,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -50508,7 +50513,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
@@ -50539,7 +50544,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="7">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>26</v>
@@ -50570,7 +50575,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
@@ -50601,7 +50606,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -50632,7 +50637,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>33</v>
@@ -50663,7 +50668,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -50694,7 +50699,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -50725,7 +50730,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
@@ -50756,7 +50761,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -50787,13 +50792,13 @@
         <v>38</v>
       </c>
       <c r="C23" s="7">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -50849,13 +50854,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -50880,7 +50885,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>42</v>
@@ -50911,7 +50916,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>43</v>
@@ -50938,63 +50943,30 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
-        <v>18</v>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="4">
-        <f>SUM(E6:E27)</f>
-        <v>90</v>
+        <v>3</v>
       </c>
-      <c r="F28" s="4">
-        <f>E28-$E$28/12</f>
-        <v>82.5</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="F28:Q28" si="0">F28-$E$28/12</f>
-        <v>75</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -51003,61 +50975,61 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="4">
-        <f>SUM(E6:E27)</f>
-        <v>90</v>
+        <f>SUM(E6:E28)</f>
+        <v>89</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" ref="F29:Q29" si="1">SUM(F6:F27)</f>
-        <v>0</v>
+        <f>E29-$E$29/12</f>
+        <v>81.583333333333329</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F29-$E$29/12</f>
+        <v>74.166666666666657</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>G29-$E$29/12</f>
+        <v>66.749999999999986</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>H29-$E$29/12</f>
+        <v>59.333333333333321</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I29-$E$29/12</f>
+        <v>51.916666666666657</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J29-$E$29/12</f>
+        <v>44.499999999999993</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>K29-$E$29/12</f>
+        <v>37.083333333333329</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>L29-$E$29/12</f>
+        <v>29.666666666666661</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>M29-$E$29/12</f>
+        <v>22.249999999999993</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N29-$E$29/12</f>
+        <v>14.833333333333325</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>O29-$E$29/12</f>
+        <v>7.4166666666666581</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>P29-$E$29/12</f>
+        <v>-8.8817841970012523E-15</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -51066,22 +51038,63 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4">
+        <f>SUM(E6:E28)</f>
+        <v>89</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUM(F6:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(G6:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>SUM(H6:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f>SUM(I6:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f>SUM(J6:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>SUM(K6:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f>SUM(L6:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f>SUM(M6:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f>SUM(N6:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <f>SUM(O6:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <f>SUM(P6:P28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>SUM(Q6:Q28)</f>
+        <v>4</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -51779,9 +51792,7 @@
     </row>
   </sheetData>
   <sheetProtection password="EF56" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="4">
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
+  <mergeCells count="2">
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -608,7 +608,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -628,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1917599504"/>
-        <c:axId val="1917600048"/>
+        <c:axId val="1102487552"/>
+        <c:axId val="1102498432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1917599504"/>
+        <c:axId val="1102487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1917600048"/>
+        <c:crossAx val="1102498432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1917600048"/>
+        <c:axId val="1102498432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1917599504"/>
+        <c:crossAx val="1102487552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50314,7 +50314,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>3</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -50345,7 +50347,9 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>3</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -50984,51 +50988,51 @@
         <v>89</v>
       </c>
       <c r="F29" s="4">
-        <f>E29-$E$29/12</f>
+        <f t="shared" ref="F29:Q29" si="0">E29-$E$29/12</f>
         <v>81.583333333333329</v>
       </c>
       <c r="G29" s="4">
-        <f>F29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>74.166666666666657</v>
       </c>
       <c r="H29" s="4">
-        <f>G29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>66.749999999999986</v>
       </c>
       <c r="I29" s="4">
-        <f>H29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>59.333333333333321</v>
       </c>
       <c r="J29" s="4">
-        <f>I29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>51.916666666666657</v>
       </c>
       <c r="K29" s="4">
-        <f>J29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>44.499999999999993</v>
       </c>
       <c r="L29" s="4">
-        <f>K29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>37.083333333333329</v>
       </c>
       <c r="M29" s="4">
-        <f>L29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>29.666666666666661</v>
       </c>
       <c r="N29" s="4">
-        <f>M29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>22.249999999999993</v>
       </c>
       <c r="O29" s="4">
-        <f>N29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>14.833333333333325</v>
       </c>
       <c r="P29" s="4">
-        <f>O29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>7.4166666666666581</v>
       </c>
       <c r="Q29" s="4">
-        <f>P29-$E$29/12</f>
+        <f t="shared" si="0"/>
         <v>-8.8817841970012523E-15</v>
       </c>
       <c r="R29" s="1"/>
@@ -51044,55 +51048,55 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4">
-        <f>SUM(E6:E28)</f>
+        <f t="shared" ref="E30:Q30" si="1">SUM(E6:E28)</f>
         <v>89</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(F6:F28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(G6:G28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>SUM(H6:H28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <f>SUM(I6:I28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f>SUM(J6:J28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f>SUM(K6:K28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <f>SUM(L6:L28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f>SUM(M6:M28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="4">
-        <f>SUM(N6:N28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f>SUM(O6:O28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P30" s="4">
-        <f>SUM(P6:P28)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q30" s="4">
-        <f>SUM(Q6:Q28)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R30" s="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -605,7 +605,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -628,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1102487552"/>
-        <c:axId val="1102498432"/>
+        <c:axId val="276045696"/>
+        <c:axId val="276046240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1102487552"/>
+        <c:axId val="276045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1102498432"/>
+        <c:crossAx val="276046240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1102498432"/>
+        <c:axId val="276046240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1102487552"/>
+        <c:crossAx val="276045696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50278,7 +50278,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
       <c r="P6" s="4">
         <v>0</v>
       </c>
@@ -50313,7 +50315,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
       <c r="P7" s="4">
         <v>3</v>
       </c>
@@ -50346,7 +50350,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
       <c r="P8" s="4">
         <v>3</v>
       </c>
@@ -50379,7 +50385,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4">
+        <v>4</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
@@ -50410,7 +50418,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
@@ -51089,7 +51099,7 @@
       </c>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Project</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Task 18.1</t>
   </si>
   <si>
-    <t>Task 18.2</t>
-  </si>
-  <si>
     <t>Task 19.1</t>
   </si>
   <si>
@@ -293,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -315,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -454,45 +454,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$Q$29</c:f>
+              <c:f>Sheet1!$F$28:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>81.583333333333329</c:v>
+                  <c:v>77.916666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.166666666666657</c:v>
+                  <c:v>70.833333333333343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.749999999999986</c:v>
+                  <c:v>63.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.333333333333321</c:v>
+                  <c:v>56.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.916666666666657</c:v>
+                  <c:v>49.583333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.499999999999993</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.083333333333329</c:v>
+                  <c:v>35.416666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.666666666666661</c:v>
+                  <c:v>28.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.249999999999993</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.833333333333325</c:v>
+                  <c:v>14.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4166666666666581</c:v>
+                  <c:v>7.0833333333333348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.8817841970012523E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,45 +573,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$Q$30</c:f>
+              <c:f>Sheet1!$F$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276045696"/>
-        <c:axId val="276046240"/>
+        <c:axId val="-550574784"/>
+        <c:axId val="-550573696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276045696"/>
+        <c:axId val="-550574784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276046240"/>
+        <c:crossAx val="-550573696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276046240"/>
+        <c:axId val="-550573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="276045696"/>
+        <c:crossAx val="-550574784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,14 +1004,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1020,14 +1020,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -33793,16 +33793,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -50269,15 +50269,33 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
@@ -50285,7 +50303,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -50306,22 +50324,42 @@
       <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -50341,22 +50379,42 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -50376,20 +50434,42 @@
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -50409,20 +50489,42 @@
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -50442,18 +50544,42 @@
       <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -50473,18 +50599,42 @@
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -50504,18 +50654,42 @@
       <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -50535,18 +50709,42 @@
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -50566,18 +50764,42 @@
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -50589,7 +50811,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
@@ -50597,18 +50819,42 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -50620,7 +50866,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -50628,18 +50874,42 @@
       <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -50651,7 +50921,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>33</v>
@@ -50659,18 +50929,42 @@
       <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -50682,7 +50976,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -50690,18 +50984,42 @@
       <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -50713,7 +51031,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -50721,18 +51039,42 @@
       <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -50744,7 +51086,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
@@ -50752,18 +51094,42 @@
       <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
+      <c r="L21" s="4">
+        <v>4</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -50775,7 +51141,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -50783,18 +51149,42 @@
       <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4</v>
+      </c>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -50806,26 +51196,50 @@
         <v>38</v>
       </c>
       <c r="C23" s="7">
-        <v>2006</v>
+        <v>2008</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -50845,18 +51259,42 @@
       <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -50868,26 +51306,50 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4</v>
+      </c>
+      <c r="M25" s="4">
+        <v>4</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4</v>
+      </c>
+      <c r="O25" s="4">
         <v>3</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -50899,7 +51361,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>42</v>
@@ -50907,18 +51369,42 @@
       <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4</v>
+      </c>
+      <c r="N26" s="4">
+        <v>4</v>
+      </c>
+      <c r="O26" s="4">
+        <v>4</v>
+      </c>
+      <c r="P26" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -50930,26 +51416,50 @@
         <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>3</v>
+      </c>
+      <c r="P27" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -50957,30 +51467,63 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>38</v>
+      <c r="B28" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="C28" s="7">
-        <v>2013</v>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4">
+        <f>SUM(E6:E27)</f>
+        <v>85</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>44</v>
+      <c r="F28" s="4">
+        <f>E28-$E$28/12</f>
+        <v>77.916666666666671</v>
       </c>
-      <c r="E28" s="4">
-        <v>3</v>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:Q28" si="0">F28-$E$28/12</f>
+        <v>70.833333333333343</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>63.750000000000007</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>56.666666666666671</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>49.583333333333336</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>35.416666666666664</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="0"/>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0833333333333348</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -50994,56 +51537,56 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="4">
-        <f>SUM(E6:E28)</f>
-        <v>89</v>
+        <f t="shared" ref="E29:Q29" si="1">SUM(E6:E27)</f>
+        <v>85</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" ref="F29:Q29" si="0">E29-$E$29/12</f>
-        <v>81.583333333333329</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
-        <v>74.166666666666657</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>66.749999999999986</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>59.333333333333321</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="0"/>
-        <v>51.916666666666657</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="0"/>
-        <v>44.499999999999993</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="0"/>
-        <v>37.083333333333329</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="0"/>
-        <v>29.666666666666661</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="0"/>
-        <v>22.249999999999993</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="0"/>
-        <v>14.833333333333325</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="0"/>
-        <v>7.4166666666666581</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.8817841970012523E-15</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -51052,63 +51595,22 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4">
-        <f t="shared" ref="E30:Q30" si="1">SUM(E6:E28)</f>
-        <v>89</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Project</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Task 18.1</t>
   </si>
   <si>
+    <t>Task 18.2</t>
+  </si>
+  <si>
     <t>Task 19.1</t>
   </si>
   <si>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -312,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -454,45 +454,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$28:$Q$28</c:f>
+              <c:f>Sheet1!$F$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>77.916666666666671</c:v>
+                  <c:v>81.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.833333333333343</c:v>
+                  <c:v>74.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.750000000000007</c:v>
+                  <c:v>66.749999999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.666666666666671</c:v>
+                  <c:v>59.333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.583333333333336</c:v>
+                  <c:v>51.916666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.5</c:v>
+                  <c:v>44.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.416666666666664</c:v>
+                  <c:v>37.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>29.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.25</c:v>
+                  <c:v>22.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.166666666666668</c:v>
+                  <c:v>14.833333333333325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0833333333333348</c:v>
+                  <c:v>7.4166666666666581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-8.8817841970012523E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,45 +573,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$Q$29</c:f>
+              <c:f>Sheet1!$F$30:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-550574784"/>
-        <c:axId val="-550573696"/>
+        <c:axId val="276045696"/>
+        <c:axId val="276046240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-550574784"/>
+        <c:axId val="276045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-550573696"/>
+        <c:crossAx val="276046240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-550573696"/>
+        <c:axId val="276046240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-550574784"/>
+        <c:crossAx val="276045696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,14 +1004,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1020,14 +1020,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -33793,16 +33793,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -50269,33 +50269,15 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="4">
         <v>0</v>
       </c>
@@ -50303,7 +50285,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -50324,42 +50306,22 @@
       <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="4">
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -50379,42 +50341,22 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4">
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -50434,42 +50376,20 @@
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -50489,42 +50409,20 @@
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -50544,42 +50442,18 @@
       <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -50599,42 +50473,18 @@
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -50654,42 +50504,18 @@
       <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -50709,42 +50535,18 @@
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4</v>
-      </c>
-      <c r="I14" s="4">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -50764,42 +50566,18 @@
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -50811,7 +50589,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
@@ -50819,42 +50597,18 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4">
-        <v>4</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -50866,7 +50620,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -50874,42 +50628,18 @@
       <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
-      <c r="I17" s="4">
-        <v>4</v>
-      </c>
-      <c r="J17" s="4">
-        <v>4</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -50921,7 +50651,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>33</v>
@@ -50929,42 +50659,18 @@
       <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4">
-        <v>4</v>
-      </c>
-      <c r="J18" s="4">
-        <v>4</v>
-      </c>
-      <c r="K18" s="4">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -50976,7 +50682,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -50984,42 +50690,18 @@
       <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
-        <v>4</v>
-      </c>
-      <c r="I19" s="4">
-        <v>4</v>
-      </c>
-      <c r="J19" s="4">
-        <v>4</v>
-      </c>
-      <c r="K19" s="4">
-        <v>4</v>
-      </c>
-      <c r="L19" s="4">
-        <v>2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -51031,7 +50713,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
@@ -51039,42 +50721,18 @@
       <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4</v>
-      </c>
-      <c r="I20" s="4">
-        <v>4</v>
-      </c>
-      <c r="J20" s="4">
-        <v>4</v>
-      </c>
-      <c r="K20" s="4">
-        <v>4</v>
-      </c>
-      <c r="L20" s="4">
-        <v>2</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -51086,7 +50744,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
@@ -51094,42 +50752,18 @@
       <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-      <c r="I21" s="4">
-        <v>4</v>
-      </c>
-      <c r="J21" s="4">
-        <v>4</v>
-      </c>
-      <c r="K21" s="4">
-        <v>4</v>
-      </c>
-      <c r="L21" s="4">
-        <v>4</v>
-      </c>
-      <c r="M21" s="4">
-        <v>3</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -51141,7 +50775,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -51149,42 +50783,18 @@
       <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4</v>
-      </c>
-      <c r="H22" s="4">
-        <v>4</v>
-      </c>
-      <c r="I22" s="4">
-        <v>4</v>
-      </c>
-      <c r="J22" s="4">
-        <v>4</v>
-      </c>
-      <c r="K22" s="4">
-        <v>4</v>
-      </c>
-      <c r="L22" s="4">
-        <v>4</v>
-      </c>
-      <c r="M22" s="4">
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
-        <v>3</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -51196,50 +50806,26 @@
         <v>38</v>
       </c>
       <c r="C23" s="7">
-        <v>2008</v>
+        <v>2006</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="4">
-        <v>3</v>
-      </c>
-      <c r="K23" s="4">
-        <v>3</v>
-      </c>
-      <c r="L23" s="4">
-        <v>3</v>
-      </c>
-      <c r="M23" s="4">
-        <v>3</v>
-      </c>
-      <c r="N23" s="4">
-        <v>3</v>
-      </c>
-      <c r="O23" s="4">
-        <v>2</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -51259,42 +50845,18 @@
       <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="4">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3</v>
-      </c>
-      <c r="I24" s="4">
-        <v>3</v>
-      </c>
-      <c r="J24" s="4">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4">
-        <v>3</v>
-      </c>
-      <c r="M24" s="4">
-        <v>3</v>
-      </c>
-      <c r="N24" s="4">
-        <v>3</v>
-      </c>
-      <c r="O24" s="4">
-        <v>2</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -51306,50 +50868,26 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4">
-        <v>4</v>
-      </c>
-      <c r="I25" s="4">
-        <v>4</v>
-      </c>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4">
-        <v>4</v>
-      </c>
-      <c r="L25" s="4">
-        <v>4</v>
-      </c>
-      <c r="M25" s="4">
-        <v>4</v>
-      </c>
-      <c r="N25" s="4">
-        <v>4</v>
-      </c>
-      <c r="O25" s="4">
         <v>3</v>
       </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -51361,7 +50899,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>42</v>
@@ -51369,42 +50907,18 @@
       <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="4">
-        <v>4</v>
-      </c>
-      <c r="I26" s="4">
-        <v>4</v>
-      </c>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="4">
-        <v>4</v>
-      </c>
-      <c r="L26" s="4">
-        <v>4</v>
-      </c>
-      <c r="M26" s="4">
-        <v>4</v>
-      </c>
-      <c r="N26" s="4">
-        <v>4</v>
-      </c>
-      <c r="O26" s="4">
-        <v>4</v>
-      </c>
-      <c r="P26" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -51416,50 +50930,26 @@
         <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="F27" s="4">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4">
-        <v>3</v>
-      </c>
-      <c r="L27" s="4">
-        <v>3</v>
-      </c>
-      <c r="M27" s="4">
-        <v>3</v>
-      </c>
-      <c r="N27" s="4">
-        <v>3</v>
-      </c>
-      <c r="O27" s="4">
-        <v>3</v>
-      </c>
-      <c r="P27" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>2</v>
-      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -51467,63 +50957,30 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
-        <v>19</v>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="4">
-        <f>SUM(E6:E27)</f>
-        <v>85</v>
+        <v>3</v>
       </c>
-      <c r="F28" s="4">
-        <f>E28-$E$28/12</f>
-        <v>77.916666666666671</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:Q28" si="0">F28-$E$28/12</f>
-        <v>70.833333333333343</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>63.750000000000007</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>56.666666666666671</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="0"/>
-        <v>49.583333333333336</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="0"/>
-        <v>35.416666666666664</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="0"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="0"/>
-        <v>21.25</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="0"/>
-        <v>14.166666666666668</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0833333333333348</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -51537,56 +50994,56 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:Q29" si="1">SUM(E6:E27)</f>
-        <v>85</v>
+        <f>SUM(E6:E28)</f>
+        <v>89</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" ref="F29:Q29" si="0">E29-$E$29/12</f>
+        <v>81.583333333333329</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>74.166666666666657</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>66.749999999999986</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>59.333333333333321</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>51.916666666666657</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>44.499999999999993</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>37.083333333333329</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>29.666666666666661</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>22.249999999999993</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>14.833333333333325</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7.4166666666666581</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>-8.8817841970012523E-15</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -51595,22 +51052,63 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="4">
+        <f t="shared" ref="E30:Q30" si="1">SUM(E6:E28)</f>
+        <v>89</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
